--- a/7/2/4/Hogares e IPSFL 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/4/Hogares e IPSFL 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Serie</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4010,16 +4013,16 @@
         <v>88</v>
       </c>
       <c r="B75">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="C75">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="D75">
         <v>142.7</v>
       </c>
       <c r="E75">
-        <v>50.1</v>
+        <v>50</v>
       </c>
       <c r="F75">
         <v>28.9</v>
@@ -4031,13 +4034,13 @@
         <v>10.9</v>
       </c>
       <c r="I75">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="J75">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="K75">
-        <v>226.4</v>
+        <v>226.7</v>
       </c>
       <c r="L75">
         <v>79.5</v>
@@ -4050,6 +4053,53 @@
       </c>
       <c r="O75">
         <v>17.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76">
+        <v>5.6</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>133.9</v>
+      </c>
+      <c r="E76">
+        <v>48.5</v>
+      </c>
+      <c r="F76">
+        <v>28.1</v>
+      </c>
+      <c r="G76">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H76">
+        <v>10.7</v>
+      </c>
+      <c r="I76">
+        <v>9</v>
+      </c>
+      <c r="J76">
+        <v>4.8</v>
+      </c>
+      <c r="K76">
+        <v>214.3</v>
+      </c>
+      <c r="L76">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="M76">
+        <v>44.9</v>
+      </c>
+      <c r="N76">
+        <v>15.6</v>
+      </c>
+      <c r="O76">
+        <v>17.1</v>
       </c>
     </row>
   </sheetData>
